--- a/results/cpp/cpp_overall.xlsx
+++ b/results/cpp/cpp_overall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99FB479-2EBB-405A-9A99-97C5E7C15AD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1D4E65-694C-4E20-B2BB-B5A114DE93F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>19.16631092138029</v>
+        <v>19.130612972202425</v>
       </c>
       <c r="F3" s="1">
-        <v>39.707140069275432</v>
+        <v>39.724643065669298</v>
       </c>
       <c r="G3" s="1">
-        <v>0.52956977169696184</v>
+        <v>0.53027502424260975</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>5</v>
@@ -548,19 +548,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>6177</v>
+        <v>501</v>
       </c>
       <c r="D4" s="1">
         <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>91.123977232301669</v>
+        <v>85.162687099073409</v>
       </c>
       <c r="F4" s="1">
-        <v>164.12861363011388</v>
+        <v>43.77879353212866</v>
       </c>
       <c r="G4" s="1">
-        <v>2.1889653170033587</v>
+        <v>0.58439293622311617</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>4.2959800782639634</v>
+        <v>4.2965074839629365</v>
       </c>
       <c r="F5" s="1">
-        <v>5.2351922110480738</v>
+        <v>5.2398394967795516</v>
       </c>
       <c r="G5" s="1">
-        <v>6.9821184279642109E-2</v>
+        <v>6.9945399171715536E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>7</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1.2451085023123443E-3</v>
+        <v>1.2473271560940842E-3</v>
       </c>
       <c r="F6" s="1">
-        <v>3.5264120677110523E-2</v>
+        <v>3.529548598701758E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>4.7031370941070909E-4</v>
+        <v>4.7115123618556541E-4</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>8</v>
@@ -1284,13 +1284,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>22.476512360915962</v>
+        <v>22.472590510200206</v>
       </c>
       <c r="F31" s="1">
-        <v>60.459767305915278</v>
+        <v>60.465062164100772</v>
       </c>
       <c r="G31" s="1">
-        <v>0.37257722335793592</v>
+        <v>0.37268062214648062</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>5</v>
@@ -1316,19 +1316,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="1">
-        <v>2846</v>
+        <v>933</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>80.328371245205631</v>
+        <v>79.794096417581585</v>
       </c>
       <c r="F32" s="1">
-        <v>41.383076905718191</v>
+        <v>29.690620675024672</v>
       </c>
       <c r="G32" s="1">
-        <v>0.25501904116709856</v>
+        <v>0.18300020853452328</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>6</v>
@@ -1360,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>5.0718869859112141</v>
+        <v>5.0697108992136153</v>
       </c>
       <c r="F33" s="1">
-        <v>7.3551453203292096</v>
+        <v>7.3555253130403271</v>
       </c>
       <c r="G33" s="1">
-        <v>4.5325341842231359E-2</v>
+        <v>4.5336292592213584E-2</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>7</v>

--- a/results/cpp/cpp_overall.xlsx
+++ b/results/cpp/cpp_overall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1D4E65-694C-4E20-B2BB-B5A114DE93F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1038DD-AB55-48E7-AB66-02866B0465E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +519,10 @@
         <v>19.130612972202425</v>
       </c>
       <c r="F3" s="1">
-        <v>39.724643065669298</v>
+        <v>39.72818279773832</v>
       </c>
       <c r="G3" s="1">
-        <v>0.53027502424260975</v>
+        <v>0.53032227530300591</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>5</v>
@@ -537,10 +537,10 @@
         <v>18.676984669465874</v>
       </c>
       <c r="O3" s="1">
-        <v>34.802694755977811</v>
+        <v>34.804394064821672</v>
       </c>
       <c r="P3" s="1">
-        <v>0.34390753348894054</v>
+        <v>0.34392432543902446</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -557,10 +557,10 @@
         <v>85.162687099073409</v>
       </c>
       <c r="F4" s="1">
-        <v>43.77879353212866</v>
+        <v>43.782694516189167</v>
       </c>
       <c r="G4" s="1">
-        <v>0.58439293622311617</v>
+        <v>0.58444500955235501</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -575,10 +575,10 @@
         <v>73.978322429450245</v>
       </c>
       <c r="O4" s="1">
-        <v>26.778183379841785</v>
+        <v>26.779490876406612</v>
       </c>
       <c r="P4" s="1">
-        <v>0.26461223942706702</v>
+        <v>0.26462515963114336</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -595,10 +595,10 @@
         <v>4.2965074839629365</v>
       </c>
       <c r="F5" s="1">
-        <v>5.2398394967795516</v>
+        <v>5.2403064016142311</v>
       </c>
       <c r="G5" s="1">
-        <v>6.9945399171715536E-2</v>
+        <v>6.9951631775797579E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>7</v>
@@ -613,10 +613,10 @@
         <v>3.1161019431696122</v>
       </c>
       <c r="O5" s="1">
-        <v>4.6585905644539265</v>
+        <v>4.6588180291431298</v>
       </c>
       <c r="P5" s="1">
-        <v>4.6034492495182884E-2</v>
+        <v>4.6036740218262033E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -633,10 +633,10 @@
         <v>1.2473271560940842E-3</v>
       </c>
       <c r="F6" s="1">
-        <v>3.529548598701758E-2</v>
+        <v>3.5298631051491371E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>4.7115123618556541E-4</v>
+        <v>4.7119321891999369E-4</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>8</v>
@@ -651,10 +651,10 @@
         <v>9.7646714188067565E-5</v>
       </c>
       <c r="O6" s="1">
-        <v>9.8811527317047305E-3</v>
+        <v>9.8816351980867811E-3</v>
       </c>
       <c r="P6" s="1">
-        <v>9.7641946631284803E-5</v>
+        <v>9.7646714188067565E-5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -711,10 +711,10 @@
         <v>18.98860009119927</v>
       </c>
       <c r="F10" s="1">
-        <v>38.367310117301088</v>
+        <v>38.376060786845208</v>
       </c>
       <c r="G10" s="1">
-        <v>0.81929826769823633</v>
+        <v>0.81948513011774859</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>5</v>
@@ -729,10 +729,10 @@
         <v>13.809551771383832</v>
       </c>
       <c r="O10" s="1">
-        <v>26.023615356988625</v>
+        <v>26.02488887067247</v>
       </c>
       <c r="P10" s="1">
-        <v>0.25744513071085023</v>
+        <v>0.25745772926382998</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>66.291837665298672</v>
       </c>
       <c r="F11" s="1">
-        <v>12.674630129742162</v>
+        <v>12.677520910970248</v>
       </c>
       <c r="G11" s="1">
-        <v>0.27065495280397572</v>
+        <v>0.27071668275181998</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -767,10 +767,10 @@
         <v>70.088569191622625</v>
       </c>
       <c r="O11" s="1">
-        <v>20.091162476025339</v>
+        <v>20.092145674170045</v>
       </c>
       <c r="P11" s="1">
-        <v>0.19875685521859038</v>
+        <v>0.19876658175240999</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>3.2033743730050159</v>
       </c>
       <c r="F12" s="1">
-        <v>5.2528104665382083</v>
+        <v>5.2540085074858291</v>
       </c>
       <c r="G12" s="1">
-        <v>0.11216888811398</v>
+        <v>0.11219447116554176</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>7</v>
@@ -805,10 +805,10 @@
         <v>5.4897240164415733</v>
       </c>
       <c r="O12" s="1">
-        <v>7.8605818746873801</v>
+        <v>7.8609665467801353</v>
       </c>
       <c r="P12" s="1">
-        <v>7.7762774327540848E-2</v>
+        <v>7.7766579792532611E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -843,10 +843,10 @@
         <v>1.9573302016050108E-4</v>
       </c>
       <c r="O13" s="1">
-        <v>1.3989092491842346E-2</v>
+        <v>1.3989777073921685E-2</v>
       </c>
       <c r="P13" s="1">
-        <v>1.3839060006400557E-4</v>
+        <v>1.3839737246363107E-4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>10.242315573770492</v>
       </c>
       <c r="F17" s="1">
-        <v>14.285840475125749</v>
+        <v>14.287670468148708</v>
       </c>
       <c r="G17" s="1">
-        <v>0.22863930520677264</v>
+        <v>0.22866859353139246</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>5</v>
@@ -921,10 +921,10 @@
         <v>21.356435246460514</v>
       </c>
       <c r="O17" s="1">
-        <v>45.550130592375929</v>
+        <v>45.551044070513619</v>
       </c>
       <c r="P17" s="1">
-        <v>0.28847113143317576</v>
+        <v>0.28847691653342666</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>65.229252049180332</v>
       </c>
       <c r="F18" s="1">
-        <v>14.040849174716142</v>
+        <v>14.042647784750375</v>
       </c>
       <c r="G18" s="1">
-        <v>0.22471831499237904</v>
+        <v>0.22474710104450393</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>6</v>
@@ -959,10 +959,10 @@
         <v>70.382705651145073</v>
       </c>
       <c r="O18" s="1">
-        <v>12.278183459362239</v>
+        <v>12.27842969031733</v>
       </c>
       <c r="P18" s="1">
-        <v>7.775831657130669E-2</v>
+        <v>7.775987596359131E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>5.0881147540983607</v>
       </c>
       <c r="F19" s="1">
-        <v>10.406808445417758</v>
+        <v>10.408141540721429</v>
       </c>
       <c r="G19" s="1">
-        <v>0.16655691042632517</v>
+        <v>0.16657824609674207</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>7</v>
@@ -997,10 +997,10 @@
         <v>7.4798459872458185</v>
       </c>
       <c r="O19" s="1">
-        <v>12.381214564610293</v>
+        <v>12.381462861786957</v>
       </c>
       <c r="P19" s="1">
-        <v>7.8410817433920935E-2</v>
+        <v>7.8412389911684505E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>4.0107488068022298E-5</v>
       </c>
       <c r="O20" s="1">
-        <v>6.3329202945736794E-3</v>
+        <v>6.3330472971565828E-3</v>
       </c>
       <c r="P20" s="1">
-        <v>4.0106683754657913E-5</v>
+        <v>4.0107488068022305E-5</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>12.99933155080214</v>
       </c>
       <c r="F24" s="1">
-        <v>17.066302745256451</v>
+        <v>17.072009584655298</v>
       </c>
       <c r="G24" s="1">
-        <v>0.4412387531650156</v>
+        <v>0.44138629998511175</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>19.849602062826964</v>
       </c>
       <c r="O24" s="1">
-        <v>47.617569374663034</v>
+        <v>47.618159690965449</v>
       </c>
       <c r="P24" s="1">
-        <v>0.23710295140328733</v>
+        <v>0.23710589077502348</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
         <v>71.090909090909093</v>
       </c>
       <c r="F25" s="1">
-        <v>19.89977622552475</v>
+        <v>19.906430556500087</v>
       </c>
       <c r="G25" s="1">
-        <v>0.51449646599371968</v>
+        <v>0.51466850962534472</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>71.374556814519124</v>
       </c>
       <c r="O25" s="1">
-        <v>12.234022260766936</v>
+        <v>12.234173926273595</v>
       </c>
       <c r="P25" s="1">
-        <v>6.0917069553424373E-2</v>
+        <v>6.0917824743992204E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
         <v>4.5060160427807485</v>
       </c>
       <c r="F26" s="1">
-        <v>9.6930134252344207</v>
+        <v>9.6962546938169822</v>
       </c>
       <c r="G26" s="1">
-        <v>0.25060689605725878</v>
+        <v>0.25069069706145924</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>7</v>
@@ -1189,10 +1189,10 @@
         <v>6.2107703369449334</v>
       </c>
       <c r="O26" s="1">
-        <v>9.6146634593614149</v>
+        <v>9.6147826526057738</v>
       </c>
       <c r="P26" s="1">
-        <v>4.7874452915207498E-2</v>
+        <v>4.7875046416102143E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1287,10 +1287,10 @@
         <v>22.472590510200206</v>
       </c>
       <c r="F31" s="1">
-        <v>60.465062164100772</v>
+        <v>60.466210718311935</v>
       </c>
       <c r="G31" s="1">
-        <v>0.37268062214648062</v>
+        <v>0.37268770134035994</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>5</v>
@@ -1305,10 +1305,10 @@
         <v>18.748313090418353</v>
       </c>
       <c r="O31" s="1">
-        <v>38.687297774271649</v>
+        <v>38.691649306569786</v>
       </c>
       <c r="P31" s="1">
-        <v>0.58020793910761048</v>
+        <v>0.58027320067230792</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1325,10 +1325,10 @@
         <v>79.794096417581585</v>
       </c>
       <c r="F32" s="1">
-        <v>29.690620675024672</v>
+        <v>29.691184658359642</v>
       </c>
       <c r="G32" s="1">
-        <v>0.18300020853452328</v>
+        <v>0.18300368468509082</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>6</v>
@@ -1343,10 +1343,10 @@
         <v>80.39878542510121</v>
       </c>
       <c r="O32" s="1">
-        <v>35.495901930440397</v>
+        <v>35.499894495767734</v>
       </c>
       <c r="P32" s="1">
-        <v>0.53234537666580184</v>
+        <v>0.53240525466797817</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -1363,10 +1363,10 @@
         <v>5.0697108992136153</v>
       </c>
       <c r="F33" s="1">
-        <v>7.3555253130403271</v>
+        <v>7.3556650337198608</v>
       </c>
       <c r="G33" s="1">
-        <v>4.5336292592213584E-2</v>
+        <v>4.5337153770353682E-2</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>7</v>
@@ -1381,10 +1381,10 @@
         <v>3.8083670715249665</v>
       </c>
       <c r="O33" s="1">
-        <v>4.5229640664314541</v>
+        <v>4.523472807681185</v>
       </c>
       <c r="P33" s="1">
-        <v>6.7832591331493622E-2</v>
+        <v>6.7840221115144261E-2</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
